--- a/Rever_DailyTracker_PRABU_New.xlsx
+++ b/Rever_DailyTracker_PRABU_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8E954-5DF6-426F-86E3-2B6ACA85420A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC01B7-890F-45A0-92D5-1B5C6F37B322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="MAR-2021" sheetId="3" r:id="rId7"/>
     <sheet name="APRIL-2021" sheetId="9" r:id="rId8"/>
     <sheet name="MAY-2021" sheetId="10" r:id="rId9"/>
+    <sheet name="JUNE-2021" sheetId="11" r:id="rId10"/>
+    <sheet name="JULY-2021" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="280">
   <si>
     <t>No</t>
   </si>
@@ -767,6 +769,130 @@
   </si>
   <si>
     <t>QMVAR, Samsung</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 (Analysis,Export)</t>
+  </si>
+  <si>
+    <t>Change Edit page title --&gt; Edit - Service Center
+Change View Page title --&gt; View - Service Center
+Close button not aligned properly in View Service Center
+Provide Space between Branch Name: and search box and Clear icon and Search button missing</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 (Store mgt,Login)</t>
+  </si>
+  <si>
+    <t>"Change Ship name to branch name wherever appears
+Change the Validation message Please specify the Target data to be deleted"
+Credit Info Management - Data not updated for SID1
+Logout, SSC1 and User name should be in same line</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 (User Mgt, Service center)</t>
+  </si>
+  <si>
+    <t>Validation message not showing when saving it and Date picker not showing in Opening Date and Closing Date_x000D_
+Validation message not showing when Editing and saving it_x000D_
+Change the Update Successfully to Updated Successfully_x000D_
+Branch Code 1 field list box in Create New user page_x000D_
+Close button not aligned properly in View User</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0(RPA Scheduler)</t>
+  </si>
+  <si>
+    <t>Rpa Scheduler Date Picker format not working (Completed)</t>
+  </si>
+  <si>
+    <t>Ui Developing Holiday list (CREATE, GRID), Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developing Holiday list Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change Request Holiday list (Completed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May (Monthly Tasks Data Verfication), </t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Samsung, Sony</t>
+  </si>
+  <si>
+    <t>Image Icons locally called in Application, Daily task data verification</t>
+  </si>
+  <si>
+    <t>Google Api links called locally, Daily task data verification</t>
+  </si>
+  <si>
+    <t>Activity report manually update(QMVAR and QMVAR 2.0), Daily tasks data verification(Sony Samsung)</t>
+  </si>
+  <si>
+    <t>Daily tasks data verification(Sony Samsung)</t>
+  </si>
+  <si>
+    <t>live source code, modification (links and icons) entire project's</t>
+  </si>
+  <si>
+    <t>Change Request</t>
+  </si>
+  <si>
+    <t>Activity Report Manually Update QMVAR and QMVAR 2.0 all SSC'S</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Selenium log file Testing (QMVAR TO GSPN)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Design Chages(Icons alignment, design  issue alignment)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Design Chages(Button Alignment Hole Projects)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.0 Mobile View Design Check </t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Design Chages and deploye</t>
+  </si>
+  <si>
+    <t>Activity Report Manually Update QMVAR and QMVAR 2.0 all SSC'S, Sony Files Manually download and upload QMVAR and QMVAR 2.0(Saturday Sunday Files)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Mobile View Design Change (Live Source Code)</t>
+  </si>
+  <si>
+    <t>nMVAR,QMVAR 2.0, Sony Samsung</t>
+  </si>
+  <si>
+    <t>nMVAR, QMVAR 2.0, Selenium log file Testing (QMVAR TO GSPN)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Sony Samsung</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 alignment issues fixing (Live Source Code)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Mobile View Grid Horizontal Scrollbar View Style Changes (Live Source Code Entire Application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samsung, Sony</t>
+  </si>
+  <si>
+    <t>Sony Files Manually download and upload QMVAR and QMVAR 2.0 (Saturday Sunday Files)</t>
+  </si>
+  <si>
+    <t>Daily tasks data verification (Sony Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.0 Mobile View Sidebar Toggle Design Changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly tasks data verification (Sony Samsung), SAW Discount SSC11 uploading issue to mvs, to check the data (Issue fixing) </t>
+  </si>
+  <si>
+    <t>Monthly tasks data verification (Sony Samsung), Daily Task data Verification</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1007,6 +1133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1873,6 +2005,724 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6FBEE0-0091-49E5-A5A2-A7E5965364E1}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44350</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44351</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44354</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44355</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44356</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44357</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44358</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44361</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44362</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44363</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44364</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44365</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44368</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44370</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44371</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44372</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44375</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44376</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44377</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="15"/>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="14"/>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="13"/>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="12"/>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC3B00-53CF-4270-950A-98916EBE26BC}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44379</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="15"/>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="14"/>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="13"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="12"/>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA2C419-13C3-4EAD-8823-F7814488FBF9}">
   <dimension ref="A1:G35"/>
@@ -5576,10 +6426,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C4C2D5-99B3-4507-9936-B075189479C6}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5940,6 +6790,173 @@
         <v>240</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="129.6">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44340</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="129.6">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44341</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="172.8">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44342</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44343</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44344</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44347</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="15"/>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="14"/>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="13"/>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="12"/>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
